--- a/data/aa.xlsx
+++ b/data/aa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\InterfaceProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDD12ED-C708-4496-86E7-1F9803ACEA76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0A2B1C-DDFB-46CB-9981-14C1E9D14EA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
   <si>
     <t>case_url</t>
   </si>
@@ -155,6 +155,10 @@
   </si>
   <si>
     <t>搜索APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,7 +602,7 @@
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C9"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -731,7 +735,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>10</v>
@@ -759,7 +763,7 @@
         <v>35</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>11</v>
@@ -815,7 +819,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>13</v>
